--- a/Ventas/Propuesta Económica/Prupuesta Económica V4.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AntirShadow\Downloads\WebGL\ProyectoRedes\Ventas\Propuesta Económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F62240-FA1D-47B7-9223-255C13180096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11542891-A087-4630-B1C0-45C6B9AEE49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -281,54 +287,57 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -340,30 +349,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4472C4"/>
-          <bgColor rgb="FF4472C4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -444,6 +429,30 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -458,15 +467,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:F9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:F9" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A2:F9" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="1" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="0" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,31 +684,31 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,174 +728,174 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>15</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>8969</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E9" si="0">C3*D3</f>
         <v>134535</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>11310</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>56550</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>6000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>25</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>138.55000000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>3463.7500000000005</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>600</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>13999</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>69995</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>450.82</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>4057.38</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>SUM(E3:E9)</f>
         <v>288401.13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="6:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="6:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="6:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="6:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
     </row>
   </sheetData>
